--- a/MetroParis.xlsx
+++ b/MetroParis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://devinci-my.sharepoint.com/personal/andres_cavaille_edu_devinci_fr/Documents/A2/S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="906" documentId="8_{2D18A237-38E5-4689-ABE5-79FA11E659EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E44C43-0273-48B1-AA23-F0767760F8B2}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="8_{2D18A237-38E5-4689-ABE5-79FA11E659EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6774A47D-4A62-4A5B-9C5A-0A6036DFE32E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
@@ -2721,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="77" workbookViewId="0">
+    <sheetView topLeftCell="A219" zoomScale="77" workbookViewId="0">
       <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
@@ -7683,8 +7683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H240" sqref="H240"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -13975,9 +13975,6 @@
       <c r="C316">
         <v>315</v>
       </c>
-      <c r="D316">
-        <v>314</v>
-      </c>
       <c r="E316">
         <v>0</v>
       </c>
@@ -13991,9 +13988,6 @@
       </c>
       <c r="B317" t="s">
         <v>735</v>
-      </c>
-      <c r="C317">
-        <v>316</v>
       </c>
       <c r="D317">
         <v>318</v>
